--- a/python/translate_language.xlsx
+++ b/python/translate_language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wzl\MyBackUp\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB4841-C93E-4C9D-8783-C1A048F07010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D860E97-36AD-4628-834A-863767827404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Brazilian Portuguese (BPOR)  (pt-BR)</t>
   </si>
   <si>
-    <t>Русский  (ru-RU)</t>
-  </si>
-  <si>
     <t>Italiano(it-IT)</t>
   </si>
   <si>
@@ -96,18 +93,9 @@
     <t>Slovák (sk-SK)</t>
   </si>
   <si>
-    <t>Српски (sr-RS)</t>
-  </si>
-  <si>
     <t>Română (ro-RO)</t>
   </si>
   <si>
-    <t>български (bg-BG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angličtina (cs-CZ) </t>
-  </si>
-  <si>
     <t>en-US</t>
   </si>
   <si>
@@ -154,6 +142,70 @@
   </si>
   <si>
     <t>Please choose device ship country</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr-FR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Русский  (ru-RU)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Српски </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>塞尔维亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(sr-RS)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">български </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保加利亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (bg-BG)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Angličtina 捷克语 (cs-CZ) </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -191,6 +243,12 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -230,11 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -244,12 +299,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,130 +617,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="43.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="39.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="6"/>
+    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
